--- a/files/shortcuts.xlsx
+++ b/files/shortcuts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Desktop\frontend playground\69. Website\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE58620C-3F4B-4B5D-8EF8-18D01D37AE05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8980DE1-ADBA-4873-BA01-6A76F03FB602}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{492C74C2-E9E1-4D5D-9BA9-23451145B5E2}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Shortcuts" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Shortcuts!$A$3:$H$379</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Shortcuts!$A$3:$H$378</definedName>
     <definedName name="motherfucker">Shortcuts!$E$40</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="875">
   <si>
     <t>Tableau</t>
   </si>
@@ -2051,12 +2051,6 @@
   </si>
   <si>
     <t>subtitle</t>
-  </si>
-  <si>
-    <t>cfi inspired ben tjoeng slide design (orange, dark blue, white, grey)</t>
-  </si>
-  <si>
-    <t>cfi slide design</t>
   </si>
   <si>
     <t>alt gf apply all</t>
@@ -4167,11 +4161,11 @@
   <sheetPr codeName="Sheet24">
     <tabColor rgb="FF0066FF"/>
   </sheetPr>
-  <dimension ref="A2:H526"/>
+  <dimension ref="A2:H525"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A376" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H384" sqref="H384"/>
+      <pane ySplit="3" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E204" sqref="E204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -4187,7 +4181,7 @@
   <sheetData>
     <row r="2" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -4199,28 +4193,28 @@
     </row>
     <row r="3" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4228,18 +4222,18 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4247,15 +4241,15 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H5" s="20"/>
     </row>
@@ -4264,15 +4258,15 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H6" s="20"/>
     </row>
@@ -4281,15 +4275,15 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H7" s="20"/>
     </row>
@@ -4298,15 +4292,15 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H8" s="20"/>
     </row>
@@ -4315,15 +4309,15 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H9" s="20"/>
     </row>
@@ -4332,15 +4326,15 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H10" s="20"/>
     </row>
@@ -4349,15 +4343,15 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H11" s="20"/>
     </row>
@@ -4366,15 +4360,15 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H12" s="20"/>
     </row>
@@ -4383,15 +4377,15 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H13" s="20"/>
     </row>
@@ -4400,15 +4394,15 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H14" s="20"/>
     </row>
@@ -4417,15 +4411,15 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H15" s="20"/>
     </row>
@@ -4434,7 +4428,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>7</v>
@@ -4442,7 +4436,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H16" s="20"/>
     </row>
@@ -4451,15 +4445,15 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H17" s="20"/>
     </row>
@@ -4468,15 +4462,15 @@
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H18" s="20"/>
     </row>
@@ -4485,15 +4479,15 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H19" s="20"/>
     </row>
@@ -4502,7 +4496,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C20" s="34" t="s">
         <v>323</v>
@@ -4510,7 +4504,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H20" s="20"/>
     </row>
@@ -4519,15 +4513,15 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H21" s="20"/>
     </row>
@@ -4536,15 +4530,15 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H22" s="20"/>
     </row>
@@ -4553,15 +4547,15 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H23" s="20"/>
     </row>
@@ -4570,15 +4564,15 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H24" s="20"/>
     </row>
@@ -4587,15 +4581,15 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H25" s="20"/>
     </row>
@@ -4604,15 +4598,15 @@
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H26" s="20"/>
     </row>
@@ -4621,15 +4615,15 @@
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H27" s="20"/>
     </row>
@@ -4638,15 +4632,15 @@
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H28" s="20"/>
     </row>
@@ -4655,15 +4649,15 @@
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H29" s="20"/>
     </row>
@@ -4672,15 +4666,15 @@
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H30" s="20"/>
     </row>
@@ -4689,13 +4683,13 @@
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H31" s="20"/>
     </row>
@@ -4704,15 +4698,15 @@
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H32" s="20"/>
     </row>
@@ -4721,15 +4715,15 @@
         <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H33" s="20"/>
     </row>
@@ -4738,15 +4732,15 @@
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H34" s="20"/>
     </row>
@@ -4755,15 +4749,15 @@
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H35" s="20"/>
     </row>
@@ -4772,15 +4766,15 @@
         <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H36" s="20"/>
     </row>
@@ -4789,15 +4783,15 @@
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H37" s="20"/>
     </row>
@@ -4806,15 +4800,15 @@
         <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H38" s="20"/>
     </row>
@@ -4823,15 +4817,15 @@
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H39" s="20"/>
     </row>
@@ -4840,15 +4834,15 @@
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H40" s="20"/>
     </row>
@@ -4857,15 +4851,15 @@
         <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H41" s="20"/>
     </row>
@@ -4874,15 +4868,15 @@
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H42" s="20"/>
     </row>
@@ -4891,15 +4885,15 @@
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H43" s="20"/>
     </row>
@@ -4908,15 +4902,15 @@
         <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H44" s="20"/>
     </row>
@@ -4925,15 +4919,15 @@
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H45" s="20"/>
     </row>
@@ -4942,15 +4936,15 @@
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H46" s="20"/>
     </row>
@@ -4959,15 +4953,15 @@
         <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H47" s="20"/>
     </row>
@@ -4976,15 +4970,15 @@
         <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H48" s="20"/>
     </row>
@@ -4993,15 +4987,15 @@
         <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H49" s="20"/>
     </row>
@@ -5010,15 +5004,15 @@
         <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H50" s="20"/>
     </row>
@@ -5027,15 +5021,15 @@
         <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H51" s="20"/>
     </row>
@@ -5044,15 +5038,15 @@
         <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H52" s="20"/>
     </row>
@@ -5061,12 +5055,12 @@
         <v>50</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H53" s="20"/>
     </row>
@@ -5075,12 +5069,12 @@
         <v>51</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H54" s="20"/>
     </row>
@@ -5089,12 +5083,12 @@
         <v>52</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H55" s="20"/>
     </row>
@@ -5103,12 +5097,12 @@
         <v>53</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H56" s="20"/>
     </row>
@@ -5117,15 +5111,15 @@
         <v>54</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H57" s="20"/>
     </row>
@@ -5134,18 +5128,18 @@
         <v>55</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H58" s="20"/>
     </row>
@@ -5154,15 +5148,15 @@
         <v>56</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H59" s="20"/>
     </row>
@@ -5171,15 +5165,15 @@
         <v>57</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H60" s="20"/>
     </row>
@@ -5188,18 +5182,18 @@
         <v>58</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H61" s="20"/>
     </row>
@@ -5208,15 +5202,15 @@
         <v>59</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H62" s="20"/>
     </row>
@@ -5225,15 +5219,15 @@
         <v>60</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H63" s="20"/>
     </row>
@@ -5242,15 +5236,15 @@
         <v>61</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H64" s="20"/>
     </row>
@@ -5259,15 +5253,15 @@
         <v>62</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H65" s="20"/>
     </row>
@@ -5276,15 +5270,15 @@
         <v>63</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H66" s="20"/>
     </row>
@@ -5293,15 +5287,15 @@
         <v>64</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H67" s="20"/>
     </row>
@@ -5310,15 +5304,15 @@
         <v>65</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H68" s="20"/>
     </row>
@@ -5327,15 +5321,15 @@
         <v>66</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H69" s="20"/>
     </row>
@@ -5344,15 +5338,15 @@
         <v>67</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H70" s="20"/>
     </row>
@@ -5361,15 +5355,15 @@
         <v>68</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H71" s="20"/>
     </row>
@@ -5378,15 +5372,15 @@
         <v>69</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H72" s="20"/>
     </row>
@@ -5395,15 +5389,15 @@
         <v>70</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H73" s="20"/>
     </row>
@@ -5412,15 +5406,15 @@
         <v>71</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H74" s="20"/>
     </row>
@@ -5429,15 +5423,15 @@
         <v>72</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H75" s="20"/>
     </row>
@@ -5446,15 +5440,15 @@
         <v>73</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H76" s="20"/>
     </row>
@@ -5463,15 +5457,15 @@
         <v>74</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H77" s="20"/>
     </row>
@@ -5480,15 +5474,15 @@
         <v>75</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H78" s="20"/>
     </row>
@@ -5497,15 +5491,15 @@
         <v>76</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H79" s="20"/>
     </row>
@@ -5514,15 +5508,15 @@
         <v>77</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H80" s="20"/>
     </row>
@@ -5531,15 +5525,15 @@
         <v>78</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H81" s="20"/>
     </row>
@@ -5548,15 +5542,15 @@
         <v>79</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H82" s="20"/>
     </row>
@@ -5565,15 +5559,15 @@
         <v>80</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H83" s="20"/>
     </row>
@@ -5582,15 +5576,15 @@
         <v>81</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H84" s="20"/>
     </row>
@@ -5599,15 +5593,15 @@
         <v>82</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H85" s="20"/>
     </row>
@@ -5616,18 +5610,18 @@
         <v>83</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H86" s="20"/>
     </row>
@@ -5636,18 +5630,18 @@
         <v>84</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H87" s="20"/>
     </row>
@@ -5656,15 +5650,15 @@
         <v>85</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H88" s="20"/>
     </row>
@@ -5673,15 +5667,15 @@
         <v>86</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H89" s="20"/>
     </row>
@@ -5690,20 +5684,20 @@
         <v>87</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C90" s="36" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H90" s="20"/>
     </row>
@@ -5712,15 +5706,15 @@
         <v>88</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H91" s="20"/>
     </row>
@@ -5729,15 +5723,15 @@
         <v>89</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H92" s="20"/>
     </row>
@@ -5746,15 +5740,15 @@
         <v>90</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H93" s="20"/>
     </row>
@@ -5763,15 +5757,15 @@
         <v>91</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H94" s="20"/>
     </row>
@@ -5780,15 +5774,15 @@
         <v>92</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H95" s="20"/>
     </row>
@@ -5797,15 +5791,15 @@
         <v>93</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H96" s="20"/>
     </row>
@@ -5814,15 +5808,15 @@
         <v>94</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H97" s="20"/>
     </row>
@@ -5831,15 +5825,15 @@
         <v>95</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H98" s="20"/>
     </row>
@@ -5848,15 +5842,15 @@
         <v>96</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H99" s="20"/>
     </row>
@@ -5865,15 +5859,15 @@
         <v>97</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H100" s="20"/>
     </row>
@@ -5882,15 +5876,15 @@
         <v>98</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H101" s="20"/>
     </row>
@@ -5899,15 +5893,15 @@
         <v>99</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H102" s="20"/>
     </row>
@@ -5916,20 +5910,20 @@
         <v>100</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C103" s="22" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D103" s="22" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E103" s="22" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F103" s="22"/>
       <c r="G103" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H103" s="20"/>
     </row>
@@ -5938,15 +5932,15 @@
         <v>101</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H104" s="20"/>
     </row>
@@ -5955,15 +5949,15 @@
         <v>102</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H105" s="20"/>
     </row>
@@ -5972,15 +5966,15 @@
         <v>103</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C106" s="22" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H106" s="20"/>
     </row>
@@ -5989,15 +5983,15 @@
         <v>104</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H107" s="20"/>
     </row>
@@ -6006,15 +6000,15 @@
         <v>105</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H108" s="20"/>
     </row>
@@ -6023,15 +6017,15 @@
         <v>106</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H109" s="20"/>
     </row>
@@ -6040,15 +6034,15 @@
         <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H110" s="20"/>
     </row>
@@ -6057,15 +6051,15 @@
         <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H111" s="20"/>
     </row>
@@ -6074,7 +6068,7 @@
         <v>109</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>404</v>
@@ -6082,7 +6076,7 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H112" s="20"/>
     </row>
@@ -6091,15 +6085,15 @@
         <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H113" s="20"/>
     </row>
@@ -6108,15 +6102,15 @@
         <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H114" s="20"/>
     </row>
@@ -6125,15 +6119,15 @@
         <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H115" s="20"/>
     </row>
@@ -6142,15 +6136,15 @@
         <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H116" s="20"/>
     </row>
@@ -6159,16 +6153,16 @@
         <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D117" s="34"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H117" s="20"/>
     </row>
@@ -6177,16 +6171,16 @@
         <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D118" s="35"/>
       <c r="E118" s="35"/>
       <c r="F118" s="35"/>
       <c r="G118" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H118" s="20"/>
     </row>
@@ -6195,15 +6189,15 @@
         <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H119" s="20"/>
     </row>
@@ -6212,15 +6206,15 @@
         <v>117</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H120" s="20"/>
     </row>
@@ -6229,15 +6223,15 @@
         <v>118</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H121" s="20"/>
     </row>
@@ -6246,15 +6240,15 @@
         <v>119</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H122" s="20"/>
     </row>
@@ -6263,15 +6257,15 @@
         <v>120</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H123" s="20"/>
     </row>
@@ -6280,15 +6274,15 @@
         <v>121</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H124" s="20"/>
     </row>
@@ -6297,15 +6291,15 @@
         <v>122</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H125" s="20"/>
     </row>
@@ -6314,15 +6308,15 @@
         <v>123</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H126" s="20"/>
     </row>
@@ -6331,15 +6325,15 @@
         <v>124</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H127" s="20"/>
     </row>
@@ -6348,15 +6342,15 @@
         <v>125</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H128" s="20"/>
     </row>
@@ -6365,20 +6359,20 @@
         <v>126</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H129" s="20"/>
     </row>
@@ -6387,20 +6381,20 @@
         <v>127</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H130" s="20"/>
     </row>
@@ -6409,20 +6403,20 @@
         <v>128</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H131" s="20"/>
     </row>
@@ -6431,20 +6425,20 @@
         <v>129</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H132" s="20"/>
     </row>
@@ -6453,20 +6447,20 @@
         <v>130</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H133" s="20"/>
     </row>
@@ -6475,20 +6469,20 @@
         <v>131</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H134" s="20"/>
     </row>
@@ -6497,17 +6491,17 @@
         <v>132</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H135" s="20"/>
     </row>
@@ -6516,17 +6510,17 @@
         <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H136" s="20"/>
     </row>
@@ -6535,20 +6529,20 @@
         <v>134</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H137" s="20"/>
     </row>
@@ -6557,17 +6551,17 @@
         <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H138" s="20"/>
     </row>
@@ -6576,17 +6570,17 @@
         <v>136</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H139" s="20"/>
     </row>
@@ -6595,17 +6589,17 @@
         <v>137</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H140" s="20"/>
     </row>
@@ -6614,15 +6608,15 @@
         <v>138</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H141" s="20"/>
     </row>
@@ -6631,15 +6625,15 @@
         <v>139</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H142" s="20"/>
     </row>
@@ -6648,12 +6642,12 @@
         <v>140</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H143" s="20"/>
     </row>
@@ -6662,12 +6656,12 @@
         <v>141</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H144" s="20"/>
     </row>
@@ -6676,12 +6670,12 @@
         <v>142</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
       <c r="G145" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H145" s="20"/>
     </row>
@@ -6690,18 +6684,18 @@
         <v>143</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H146" s="20"/>
     </row>
@@ -6710,18 +6704,18 @@
         <v>144</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H147" s="20"/>
     </row>
@@ -6730,15 +6724,15 @@
         <v>145</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H148" s="20"/>
     </row>
@@ -6747,16 +6741,16 @@
         <v>146</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
       <c r="G149" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H149" s="19"/>
     </row>
@@ -6765,16 +6759,16 @@
         <v>147</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F150" s="2"/>
       <c r="G150" s="30" t="s">
@@ -6789,13 +6783,13 @@
         <v>148</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F151" s="2"/>
       <c r="G151" s="30" t="s">
@@ -6808,10 +6802,10 @@
         <v>149</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
@@ -6825,10 +6819,10 @@
         <v>150</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
@@ -6842,10 +6836,10 @@
         <v>151</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G154" s="30" t="s">
         <v>419</v>
@@ -6857,13 +6851,13 @@
         <v>152</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
@@ -6877,13 +6871,13 @@
         <v>153</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
@@ -6897,13 +6891,13 @@
         <v>154</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
@@ -6917,13 +6911,13 @@
         <v>155</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D158" s="16" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
@@ -6937,13 +6931,13 @@
         <v>156</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E159" s="32"/>
       <c r="F159" s="32"/>
@@ -6957,13 +6951,13 @@
         <v>157</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
@@ -6977,13 +6971,13 @@
         <v>158</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G161" s="30" t="s">
         <v>419</v>
@@ -6995,13 +6989,13 @@
         <v>159</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D162" s="16" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
@@ -7015,13 +7009,13 @@
         <v>160</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
@@ -7035,13 +7029,13 @@
         <v>161</v>
       </c>
       <c r="B164" s="16" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
@@ -7055,10 +7049,10 @@
         <v>162</v>
       </c>
       <c r="B165" s="16" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
@@ -7072,13 +7066,13 @@
         <v>163</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
@@ -7092,13 +7086,13 @@
         <v>164</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
@@ -7112,13 +7106,13 @@
         <v>165</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
@@ -7132,13 +7126,13 @@
         <v>166</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
@@ -7152,10 +7146,10 @@
         <v>167</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
@@ -7169,13 +7163,13 @@
         <v>168</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
@@ -7189,13 +7183,13 @@
         <v>169</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
@@ -7209,10 +7203,10 @@
         <v>170</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
@@ -7226,10 +7220,10 @@
         <v>171</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
@@ -7243,7 +7237,7 @@
         <v>172</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
@@ -7257,10 +7251,10 @@
         <v>173</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
@@ -7274,16 +7268,16 @@
         <v>174</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F177" s="3"/>
       <c r="G177" s="30" t="s">
@@ -7296,10 +7290,10 @@
         <v>175</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E178" s="2"/>
       <c r="F178" s="3"/>
@@ -7313,10 +7307,10 @@
         <v>176</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E179" s="2"/>
       <c r="F179" s="3"/>
@@ -7330,10 +7324,10 @@
         <v>177</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E180" s="2"/>
       <c r="F180" s="3"/>
@@ -7347,13 +7341,13 @@
         <v>178</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F181" s="2"/>
       <c r="G181" s="30" t="s">
@@ -7366,10 +7360,10 @@
         <v>179</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D182" s="31"/>
       <c r="E182" s="31"/>
@@ -7384,10 +7378,10 @@
         <v>180</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
@@ -7401,10 +7395,10 @@
         <v>181</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
@@ -7418,10 +7412,10 @@
         <v>182</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
@@ -7435,13 +7429,13 @@
         <v>183</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
@@ -7455,13 +7449,13 @@
         <v>184</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
@@ -7475,13 +7469,13 @@
         <v>185</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
@@ -7495,13 +7489,13 @@
         <v>186</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
@@ -7515,13 +7509,13 @@
         <v>187</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
@@ -7538,10 +7532,10 @@
         <v>363</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
@@ -7555,13 +7549,13 @@
         <v>189</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
@@ -7575,13 +7569,13 @@
         <v>190</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
@@ -7595,13 +7589,13 @@
         <v>191</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
@@ -7615,13 +7609,13 @@
         <v>192</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
@@ -7635,13 +7629,13 @@
         <v>193</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
@@ -7655,13 +7649,13 @@
         <v>194</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
@@ -7675,13 +7669,13 @@
         <v>195</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
@@ -7695,10 +7689,10 @@
         <v>196</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
@@ -7712,10 +7706,10 @@
         <v>197</v>
       </c>
       <c r="B200" s="16" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
@@ -7729,10 +7723,10 @@
         <v>198</v>
       </c>
       <c r="B201" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
@@ -7746,10 +7740,10 @@
         <v>199</v>
       </c>
       <c r="B202" s="16" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
@@ -7763,10 +7757,10 @@
         <v>200</v>
       </c>
       <c r="B203" s="16" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
@@ -7777,30 +7771,30 @@
     </row>
     <row r="204" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="E204" s="3"/>
-      <c r="F204" s="3"/>
+        <v>430</v>
+      </c>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
       <c r="G204" s="30" t="s">
         <v>419</v>
       </c>
       <c r="H204" s="20"/>
     </row>
-    <row r="205" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
@@ -7809,15 +7803,15 @@
       </c>
       <c r="H205" s="20"/>
     </row>
-    <row r="206" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
@@ -7826,15 +7820,18 @@
       </c>
       <c r="H206" s="20"/>
     </row>
-    <row r="207" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>423</v>
       </c>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
@@ -7843,74 +7840,73 @@
       </c>
       <c r="H207" s="20"/>
     </row>
-    <row r="208" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="4" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
-        <v>205</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="E208" s="2"/>
-      <c r="F208" s="2"/>
-      <c r="G208" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="E208" s="5"/>
+      <c r="F208" s="5"/>
+      <c r="G208" s="29" t="s">
         <v>419</v>
       </c>
-      <c r="H208" s="20"/>
-    </row>
-    <row r="209" spans="1:8" s="4" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H208" s="19"/>
+    </row>
+    <row r="209" spans="1:8" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
-        <v>206</v>
-      </c>
-      <c r="B209" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="C209" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="D209" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="E209" s="5"/>
-      <c r="F209" s="5"/>
-      <c r="G209" s="29" t="s">
-        <v>419</v>
-      </c>
-      <c r="H209" s="19"/>
-    </row>
-    <row r="210" spans="1:8" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="H209" s="20" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="E210" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="C210" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>372</v>
+      </c>
       <c r="F210" s="2"/>
       <c r="G210" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="H210" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="H210" s="20"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C211" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>372</v>
@@ -7923,13 +7919,13 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C212" s="26" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>372</v>
@@ -7940,15 +7936,15 @@
       </c>
       <c r="H212" s="20"/>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C213" s="26" t="s">
-        <v>410</v>
+        <v>409</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>408</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>372</v>
@@ -7959,18 +7955,18 @@
       </c>
       <c r="H213" s="20"/>
     </row>
-    <row r="214" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="F214" s="2"/>
       <c r="G214" s="28" t="s">
@@ -7980,17 +7976,15 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>380</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="C215" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="E215" s="2"/>
       <c r="F215" s="2"/>
       <c r="G215" s="28" t="s">
         <v>344</v>
@@ -7999,15 +7993,17 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C216" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="E216" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>380</v>
+      </c>
       <c r="F216" s="2"/>
       <c r="G216" s="28" t="s">
         <v>344</v>
@@ -8016,16 +8012,16 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="F217" s="2"/>
       <c r="G217" s="28" t="s">
@@ -8033,15 +8029,15 @@
       </c>
       <c r="H217" s="20"/>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>397</v>
@@ -8052,18 +8048,18 @@
       </c>
       <c r="H218" s="20"/>
     </row>
-    <row r="219" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
+      </c>
+      <c r="C219" s="26" t="s">
+        <v>395</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F219" s="2"/>
       <c r="G219" s="28" t="s">
@@ -8073,16 +8069,16 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C220" s="26" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F220" s="2"/>
       <c r="G220" s="28" t="s">
@@ -8090,15 +8086,15 @@
       </c>
       <c r="H220" s="20"/>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C221" s="26" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>387</v>
@@ -8109,15 +8105,15 @@
       </c>
       <c r="H221" s="20"/>
     </row>
-    <row r="222" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C222" s="26" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>387</v>
@@ -8130,16 +8126,16 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C223" s="26" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="F223" s="2"/>
       <c r="G223" s="28" t="s">
@@ -8149,13 +8145,13 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C224" s="26" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>369</v>
@@ -8168,16 +8164,16 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C225" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="F225" s="2"/>
       <c r="G225" s="28" t="s">
@@ -8187,16 +8183,16 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C226" s="26" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="F226" s="2"/>
       <c r="G226" s="28" t="s">
@@ -8206,13 +8202,13 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C227" s="26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>369</v>
@@ -8223,36 +8219,36 @@
       </c>
       <c r="H227" s="20"/>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C228" s="26" t="s">
-        <v>377</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>369</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E228" s="2"/>
       <c r="F228" s="2"/>
       <c r="G228" s="28" t="s">
         <v>344</v>
       </c>
       <c r="H228" s="20"/>
     </row>
-    <row r="229" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E229" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>372</v>
+      </c>
       <c r="F229" s="2"/>
       <c r="G229" s="28" t="s">
         <v>344</v>
@@ -8261,16 +8257,16 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F230" s="2"/>
       <c r="G230" s="28" t="s">
@@ -8278,34 +8274,32 @@
       </c>
       <c r="H230" s="20"/>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>369</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="E231" s="2"/>
       <c r="F231" s="2"/>
       <c r="G231" s="28" t="s">
         <v>344</v>
       </c>
       <c r="H231" s="20"/>
     </row>
-    <row r="232" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>368</v>
+        <v>302</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
@@ -8316,13 +8310,13 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>302</v>
+        <v>365</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
@@ -8331,15 +8325,15 @@
       </c>
       <c r="H233" s="20"/>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
@@ -8348,15 +8342,15 @@
       </c>
       <c r="H234" s="20"/>
     </row>
-    <row r="235" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
@@ -8367,13 +8361,13 @@
     </row>
     <row r="236" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
@@ -8384,13 +8378,13 @@
     </row>
     <row r="237" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
@@ -8399,15 +8393,18 @@
       </c>
       <c r="H237" s="20"/>
     </row>
-    <row r="238" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
@@ -8416,18 +8413,15 @@
       </c>
       <c r="H238" s="20"/>
     </row>
-    <row r="239" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
+      </c>
+      <c r="C239" s="26" t="s">
+        <v>351</v>
       </c>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
@@ -8438,13 +8432,13 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C240" s="26" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
@@ -8455,13 +8449,13 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C241" s="26" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
@@ -8470,50 +8464,51 @@
       </c>
       <c r="H241" s="20"/>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
-        <v>239</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C242" s="26" t="s">
-        <v>347</v>
-      </c>
-      <c r="E242" s="2"/>
-      <c r="F242" s="2"/>
-      <c r="G242" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D242" s="5"/>
+      <c r="E242" s="5"/>
+      <c r="F242" s="5"/>
+      <c r="G242" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="H242" s="20"/>
-    </row>
-    <row r="243" spans="1:8" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H242" s="19"/>
+    </row>
+    <row r="243" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
-        <v>240</v>
-      </c>
-      <c r="B243" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="C243" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="D243" s="5"/>
-      <c r="E243" s="5"/>
-      <c r="F243" s="5"/>
-      <c r="G243" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="H243" s="19"/>
-    </row>
-    <row r="244" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F243" s="2"/>
+      <c r="G243" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="H243" s="20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>157</v>
@@ -8522,16 +8517,17 @@
       <c r="G244" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="H244" s="20" t="s">
-        <v>288</v>
-      </c>
+      <c r="H244" s="20"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
+      </c>
+      <c r="C245" s="26" t="s">
+        <v>339</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>157</v>
@@ -8544,13 +8540,13 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C246" s="26" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>157</v>
@@ -8563,16 +8559,16 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C247" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>157</v>
+        <v>332</v>
       </c>
       <c r="F247" s="2"/>
       <c r="G247" s="25" t="s">
@@ -8582,13 +8578,13 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>332</v>
@@ -8601,16 +8597,16 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F249" s="2"/>
       <c r="G249" s="25" t="s">
@@ -8620,13 +8616,13 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>325</v>
@@ -8639,13 +8635,13 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
+      </c>
+      <c r="C251" s="26" t="s">
+        <v>326</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>325</v>
@@ -8658,32 +8654,30 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C252" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>325</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E252" s="2"/>
       <c r="F252" s="2"/>
       <c r="G252" s="25" t="s">
         <v>288</v>
       </c>
       <c r="H252" s="20"/>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C253" s="26" t="s">
-        <v>323</v>
+        <v>322</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
@@ -8692,15 +8686,15 @@
       </c>
       <c r="H253" s="20"/>
     </row>
-    <row r="254" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
+      </c>
+      <c r="C254" s="26" t="s">
+        <v>212</v>
       </c>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
@@ -8709,15 +8703,15 @@
       </c>
       <c r="H254" s="20"/>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C255" s="26" t="s">
-        <v>212</v>
+        <v>319</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
@@ -8726,15 +8720,15 @@
       </c>
       <c r="H255" s="20"/>
     </row>
-    <row r="256" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
+      </c>
+      <c r="C256" s="26" t="s">
+        <v>316</v>
       </c>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
@@ -8745,13 +8739,13 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C257" s="26" t="s">
-        <v>316</v>
+        <v>315</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
@@ -8760,15 +8754,15 @@
       </c>
       <c r="H257" s="20"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
@@ -8777,15 +8771,15 @@
       </c>
       <c r="H258" s="20"/>
     </row>
-    <row r="259" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>312</v>
+        <v>139</v>
       </c>
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
@@ -8794,15 +8788,15 @@
       </c>
       <c r="H259" s="20"/>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>139</v>
+        <v>309</v>
       </c>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
@@ -8811,15 +8805,15 @@
       </c>
       <c r="H260" s="20"/>
     </row>
-    <row r="261" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
@@ -8830,13 +8824,13 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
@@ -8845,15 +8839,15 @@
       </c>
       <c r="H262" s="20"/>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
@@ -8862,15 +8856,15 @@
       </c>
       <c r="H263" s="20"/>
     </row>
-    <row r="264" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
@@ -8879,15 +8873,15 @@
       </c>
       <c r="H264" s="20"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
@@ -8896,15 +8890,15 @@
       </c>
       <c r="H265" s="20"/>
     </row>
-    <row r="266" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
@@ -8915,13 +8909,13 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
@@ -8930,15 +8924,15 @@
       </c>
       <c r="H267" s="20"/>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
@@ -8947,15 +8941,15 @@
       </c>
       <c r="H268" s="20"/>
     </row>
-    <row r="269" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
@@ -8964,50 +8958,55 @@
       </c>
       <c r="H269" s="20"/>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
-        <v>267</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E270" s="2"/>
-      <c r="F270" s="2"/>
-      <c r="G270" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C270" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D270" s="5"/>
+      <c r="E270" s="5"/>
+      <c r="F270" s="5"/>
+      <c r="G270" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="H270" s="20"/>
-    </row>
-    <row r="271" spans="1:8" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H270" s="19"/>
+    </row>
+    <row r="271" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
-        <v>268</v>
-      </c>
-      <c r="B271" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C271" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="D271" s="5"/>
-      <c r="E271" s="5"/>
-      <c r="F271" s="5"/>
-      <c r="G271" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="H271" s="19"/>
-    </row>
-    <row r="272" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D271"/>
+      <c r="E271" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F271" s="2"/>
+      <c r="G271" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="H271" s="20" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>287</v>
+        <v>221</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D272"/>
       <c r="E272" s="2" t="s">
@@ -9017,23 +9016,21 @@
       <c r="G272" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="H272" s="20" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H272" s="20"/>
+    </row>
+    <row r="273" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>221</v>
+        <v>283</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D273"/>
       <c r="E273" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F273" s="2"/>
       <c r="G273" s="21" t="s">
@@ -9041,19 +9038,19 @@
       </c>
       <c r="H273" s="20"/>
     </row>
-    <row r="274" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D274"/>
       <c r="E274" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F274" s="2"/>
       <c r="G274" s="21" t="s">
@@ -9063,13 +9060,13 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D275"/>
       <c r="E275" s="2" t="s">
@@ -9083,13 +9080,13 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D276"/>
       <c r="E276" s="2" t="s">
@@ -9101,19 +9098,19 @@
       </c>
       <c r="H276" s="20"/>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
+        <v>275</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B277" s="2" t="s">
-        <v>277</v>
-      </c>
       <c r="C277" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D277"/>
       <c r="E277" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F277" s="2"/>
       <c r="G277" s="21" t="s">
@@ -9121,19 +9118,18 @@
       </c>
       <c r="H277" s="20"/>
     </row>
-    <row r="278" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D278"/>
+        <v>270</v>
+      </c>
       <c r="E278" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F278" s="2"/>
       <c r="G278" s="21" t="s">
@@ -9141,15 +9137,15 @@
       </c>
       <c r="H278" s="20"/>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E279" s="2" t="s">
         <v>267</v>
@@ -9162,32 +9158,33 @@
     </row>
     <row r="280" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="E280" s="2"/>
       <c r="F280" s="2"/>
       <c r="G280" s="21" t="s">
         <v>228</v>
       </c>
       <c r="H280" s="20"/>
     </row>
-    <row r="281" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
@@ -9198,16 +9195,13 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
@@ -9218,13 +9212,13 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
@@ -9235,13 +9229,13 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
@@ -9250,15 +9244,15 @@
       </c>
       <c r="H284" s="20"/>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
@@ -9267,15 +9261,15 @@
       </c>
       <c r="H285" s="20"/>
     </row>
-    <row r="286" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E286" s="2"/>
       <c r="F286" s="2"/>
@@ -9286,13 +9280,13 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
@@ -9303,13 +9297,13 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
-        <v>285</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>251</v>
+        <v>286</v>
+      </c>
+      <c r="B288" s="16" t="s">
+        <v>249</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
@@ -9320,13 +9314,13 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B289" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
+      </c>
+      <c r="C289" s="22" t="s">
+        <v>246</v>
       </c>
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
@@ -9335,15 +9329,15 @@
       </c>
       <c r="H289" s="20"/>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
-        <v>287</v>
-      </c>
-      <c r="B290" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="C290" s="22" t="s">
-        <v>246</v>
+        <v>288</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
@@ -9352,15 +9346,15 @@
       </c>
       <c r="H290" s="20"/>
     </row>
-    <row r="291" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E291" s="2"/>
       <c r="F291" s="2"/>
@@ -9369,15 +9363,15 @@
       </c>
       <c r="H291" s="20"/>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
@@ -9388,13 +9382,13 @@
     </row>
     <row r="293" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
@@ -9403,15 +9397,15 @@
       </c>
       <c r="H293" s="20"/>
     </row>
-    <row r="294" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
@@ -9422,13 +9416,13 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
@@ -9439,13 +9433,13 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E296" s="2"/>
       <c r="F296" s="2"/>
@@ -9454,15 +9448,15 @@
       </c>
       <c r="H296" s="20"/>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
@@ -9471,15 +9465,15 @@
       </c>
       <c r="H297" s="20"/>
     </row>
-    <row r="298" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E298" s="2"/>
       <c r="F298" s="2"/>
@@ -9488,32 +9482,32 @@
       </c>
       <c r="H298" s="20"/>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E299" s="2"/>
       <c r="F299" s="2"/>
-      <c r="G299" s="21" t="s">
-        <v>228</v>
+      <c r="G299" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="H299" s="20"/>
     </row>
-    <row r="300" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
@@ -9524,13 +9518,13 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E301" s="2"/>
       <c r="F301" s="2"/>
@@ -9539,15 +9533,15 @@
       </c>
       <c r="H301" s="20"/>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E302" s="2"/>
       <c r="F302" s="2"/>
@@ -9556,15 +9550,15 @@
       </c>
       <c r="H302" s="20"/>
     </row>
-    <row r="303" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E303" s="2"/>
       <c r="F303" s="2"/>
@@ -9573,15 +9567,15 @@
       </c>
       <c r="H303" s="20"/>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E304" s="2"/>
       <c r="F304" s="2"/>
@@ -9592,13 +9586,13 @@
     </row>
     <row r="305" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E305" s="2"/>
       <c r="F305" s="2"/>
@@ -9607,15 +9601,15 @@
       </c>
       <c r="H305" s="20"/>
     </row>
-    <row r="306" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E306" s="2"/>
       <c r="F306" s="2"/>
@@ -9626,13 +9620,13 @@
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E307" s="2"/>
       <c r="F307" s="2"/>
@@ -9643,13 +9637,13 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E308" s="2"/>
       <c r="F308" s="2"/>
@@ -9658,15 +9652,15 @@
       </c>
       <c r="H308" s="20"/>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E309" s="2"/>
       <c r="F309" s="2"/>
@@ -9675,15 +9669,15 @@
       </c>
       <c r="H309" s="20"/>
     </row>
-    <row r="310" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
@@ -9694,13 +9688,13 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E311" s="2"/>
       <c r="F311" s="2"/>
@@ -9709,15 +9703,15 @@
       </c>
       <c r="H311" s="20"/>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E312" s="2"/>
       <c r="F312" s="2"/>
@@ -9726,15 +9720,15 @@
       </c>
       <c r="H312" s="20"/>
     </row>
-    <row r="313" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E313" s="2"/>
       <c r="F313" s="2"/>
@@ -9743,15 +9737,15 @@
       </c>
       <c r="H313" s="20"/>
     </row>
-    <row r="314" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E314" s="2"/>
       <c r="F314" s="2"/>
@@ -9760,15 +9754,15 @@
       </c>
       <c r="H314" s="20"/>
     </row>
-    <row r="315" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E315" s="2"/>
       <c r="F315" s="2"/>
@@ -9777,15 +9771,15 @@
       </c>
       <c r="H315" s="20"/>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
@@ -9794,15 +9788,15 @@
       </c>
       <c r="H316" s="20"/>
     </row>
-    <row r="317" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E317" s="2"/>
       <c r="F317" s="2"/>
@@ -9811,15 +9805,15 @@
       </c>
       <c r="H317" s="20"/>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E318" s="2"/>
       <c r="F318" s="2"/>
@@ -9828,15 +9822,15 @@
       </c>
       <c r="H318" s="20"/>
     </row>
-    <row r="319" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E319" s="2"/>
       <c r="F319" s="2"/>
@@ -9847,13 +9841,13 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E320" s="2"/>
       <c r="F320" s="2"/>
@@ -9862,50 +9856,53 @@
       </c>
       <c r="H320" s="20"/>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
-        <v>318</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C321" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E321" s="2"/>
-      <c r="F321" s="2"/>
-      <c r="G321" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B321" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D321" s="5"/>
+      <c r="E321" s="5"/>
+      <c r="F321" s="5"/>
+      <c r="G321" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H321" s="20"/>
-    </row>
-    <row r="322" spans="1:8" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H321" s="19"/>
+    </row>
+    <row r="322" spans="1:8" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
-        <v>319</v>
-      </c>
-      <c r="B322" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C322" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D322" s="5"/>
-      <c r="E322" s="5"/>
-      <c r="F322" s="5"/>
-      <c r="G322" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="H322" s="19"/>
-    </row>
-    <row r="323" spans="1:8" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="B322" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C322" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D322" s="16"/>
+      <c r="E322" s="16"/>
+      <c r="F322" s="16"/>
+      <c r="G322" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H322" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B323" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D323" s="16"/>
       <c r="E323" s="16"/>
@@ -9913,19 +9910,17 @@
       <c r="G323" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="H323" s="16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H323" s="14"/>
+    </row>
+    <row r="324" spans="1:8" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B324" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D324" s="16"/>
       <c r="E324" s="16"/>
@@ -9937,13 +9932,13 @@
     </row>
     <row r="325" spans="1:8" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B325" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C325" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D325" s="16"/>
       <c r="E325" s="16"/>
@@ -9953,15 +9948,15 @@
       </c>
       <c r="H325" s="14"/>
     </row>
-    <row r="326" spans="1:8" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B326" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D326" s="16"/>
       <c r="E326" s="16"/>
@@ -9971,15 +9966,15 @@
       </c>
       <c r="H326" s="14"/>
     </row>
-    <row r="327" spans="1:8" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B327" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D327" s="16"/>
       <c r="E327" s="16"/>
@@ -9991,13 +9986,13 @@
     </row>
     <row r="328" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B328" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D328" s="16"/>
       <c r="E328" s="16"/>
@@ -10009,16 +10004,18 @@
     </row>
     <row r="329" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B329" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D329" s="16"/>
-      <c r="E329" s="16"/>
+      <c r="E329" s="16" t="s">
+        <v>152</v>
+      </c>
       <c r="F329" s="16"/>
       <c r="G329" s="15" t="s">
         <v>148</v>
@@ -10027,13 +10024,13 @@
     </row>
     <row r="330" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B330" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D330" s="16"/>
       <c r="E330" s="16" t="s">
@@ -10047,13 +10044,13 @@
     </row>
     <row r="331" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B331" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D331" s="16"/>
       <c r="E331" s="16" t="s">
@@ -10067,17 +10064,17 @@
     </row>
     <row r="332" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B332" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C332" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D332" s="16"/>
       <c r="E332" s="16" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F332" s="16"/>
       <c r="G332" s="15" t="s">
@@ -10087,17 +10084,17 @@
     </row>
     <row r="333" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B333" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D333" s="16"/>
       <c r="E333" s="16" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F333" s="16"/>
       <c r="G333" s="15" t="s">
@@ -10107,13 +10104,13 @@
     </row>
     <row r="334" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B334" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D334" s="16"/>
       <c r="E334" s="16" t="s">
@@ -10125,55 +10122,55 @@
       </c>
       <c r="H334" s="14"/>
     </row>
-    <row r="335" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
-        <v>332</v>
-      </c>
-      <c r="B335" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C335" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="D335" s="16"/>
-      <c r="E335" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="F335" s="16"/>
-      <c r="G335" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="B335" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C335" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D335" s="12"/>
+      <c r="E335" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F335" s="12"/>
+      <c r="G335" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="H335" s="14"/>
-    </row>
-    <row r="336" spans="1:8" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H335" s="10"/>
+    </row>
+    <row r="336" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
-        <v>333</v>
-      </c>
-      <c r="B336" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C336" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D336" s="12"/>
-      <c r="E336" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="F336" s="12"/>
-      <c r="G336" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="H336" s="10"/>
+        <v>334</v>
+      </c>
+      <c r="B336" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C336" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D336" s="16"/>
+      <c r="E336" s="16"/>
+      <c r="F336" s="16"/>
+      <c r="G336" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="H336" s="18" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="337" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B337" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C337" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D337" s="16"/>
       <c r="E337" s="16"/>
@@ -10181,19 +10178,17 @@
       <c r="G337" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H337" s="18" t="s">
-        <v>132</v>
-      </c>
+      <c r="H337" s="14"/>
     </row>
     <row r="338" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B338" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="C338" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="C338" s="17" t="s">
+        <v>7</v>
       </c>
       <c r="D338" s="16"/>
       <c r="E338" s="16"/>
@@ -10205,13 +10200,13 @@
     </row>
     <row r="339" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B339" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C339" s="17" t="s">
-        <v>7</v>
+        <v>142</v>
+      </c>
+      <c r="C339" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="D339" s="16"/>
       <c r="E339" s="16"/>
@@ -10223,13 +10218,13 @@
     </row>
     <row r="340" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B340" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C340" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D340" s="16"/>
       <c r="E340" s="16"/>
@@ -10241,13 +10236,13 @@
     </row>
     <row r="341" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B341" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C341" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D341" s="16"/>
       <c r="E341" s="16"/>
@@ -10259,13 +10254,13 @@
     </row>
     <row r="342" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B342" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D342" s="16"/>
       <c r="E342" s="16"/>
@@ -10275,75 +10270,77 @@
       </c>
       <c r="H342" s="14"/>
     </row>
-    <row r="343" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
-        <v>340</v>
-      </c>
-      <c r="B343" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C343" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D343" s="16"/>
-      <c r="E343" s="16"/>
-      <c r="F343" s="16"/>
-      <c r="G343" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="B343" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C343" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D343" s="12"/>
+      <c r="E343" s="12"/>
+      <c r="F343" s="12"/>
+      <c r="G343" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="H343" s="14"/>
-    </row>
-    <row r="344" spans="1:8" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H343" s="10"/>
+    </row>
+    <row r="344" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
-        <v>341</v>
-      </c>
-      <c r="B344" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C344" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D344" s="12"/>
-      <c r="E344" s="12"/>
-      <c r="F344" s="12"/>
-      <c r="G344" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="H344" s="10"/>
-    </row>
-    <row r="345" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D344"/>
+      <c r="E344" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F344" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G344" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H344" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D345"/>
-      <c r="E345" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F345" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="E345" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F345" s="2"/>
       <c r="G345" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H345" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="H345" s="2"/>
     </row>
     <row r="346" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D346"/>
       <c r="E346" s="8" t="s">
@@ -10357,13 +10354,13 @@
     </row>
     <row r="347" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D347"/>
       <c r="E347" s="8" t="s">
@@ -10377,13 +10374,13 @@
     </row>
     <row r="348" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D348"/>
       <c r="E348" s="8" t="s">
@@ -10397,13 +10394,13 @@
     </row>
     <row r="349" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D349"/>
       <c r="E349" s="8" t="s">
@@ -10417,13 +10414,13 @@
     </row>
     <row r="350" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D350"/>
       <c r="E350" s="8" t="s">
@@ -10437,15 +10434,14 @@
     </row>
     <row r="351" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D351"/>
+        <v>113</v>
+      </c>
       <c r="E351" s="8" t="s">
         <v>98</v>
       </c>
@@ -10457,13 +10453,13 @@
     </row>
     <row r="352" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E352" s="8" t="s">
         <v>98</v>
@@ -10476,13 +10472,13 @@
     </row>
     <row r="353" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E353" s="8" t="s">
         <v>98</v>
@@ -10495,13 +10491,13 @@
     </row>
     <row r="354" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E354" s="8" t="s">
         <v>98</v>
@@ -10514,13 +10510,13 @@
     </row>
     <row r="355" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E355" s="8" t="s">
         <v>98</v>
@@ -10533,13 +10529,13 @@
     </row>
     <row r="356" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E356" s="8" t="s">
         <v>98</v>
@@ -10552,13 +10548,13 @@
     </row>
     <row r="357" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E357" s="8" t="s">
         <v>98</v>
@@ -10571,13 +10567,13 @@
     </row>
     <row r="358" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E358" s="8" t="s">
         <v>98</v>
@@ -10588,18 +10584,18 @@
       </c>
       <c r="H358" s="2"/>
     </row>
-    <row r="359" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E359" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="E359" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="F359" s="2"/>
       <c r="G359" s="3" t="s">
@@ -10607,15 +10603,15 @@
       </c>
       <c r="H359" s="2"/>
     </row>
-    <row r="360" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E360" s="7" t="s">
         <v>89</v>
@@ -10628,13 +10624,13 @@
     </row>
     <row r="361" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E361" s="7" t="s">
         <v>89</v>
@@ -10647,13 +10643,13 @@
     </row>
     <row r="362" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E362" s="7" t="s">
         <v>89</v>
@@ -10664,18 +10660,18 @@
       </c>
       <c r="H362" s="2"/>
     </row>
-    <row r="363" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E363" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="E363" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="F363" s="2"/>
       <c r="G363" s="3" t="s">
@@ -10683,15 +10679,15 @@
       </c>
       <c r="H363" s="2"/>
     </row>
-    <row r="364" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E364" s="2" t="s">
         <v>76</v>
@@ -10704,13 +10700,13 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E365" s="2" t="s">
         <v>76</v>
@@ -10723,13 +10719,13 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E366" s="2" t="s">
         <v>76</v>
@@ -10740,15 +10736,15 @@
       </c>
       <c r="H366" s="2"/>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E367" s="2" t="s">
         <v>76</v>
@@ -10759,15 +10755,15 @@
       </c>
       <c r="H367" s="2"/>
     </row>
-    <row r="368" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E368" s="2" t="s">
         <v>76</v>
@@ -10778,51 +10774,49 @@
       </c>
       <c r="H368" s="2"/>
     </row>
-    <row r="369" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E369" s="2" t="s">
-        <v>76</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E369" s="2"/>
       <c r="F369" s="2"/>
       <c r="G369" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H369" s="2"/>
     </row>
-    <row r="370" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E370" s="2"/>
       <c r="F370" s="2"/>
       <c r="G370" s="3" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="H370" s="2"/>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E371" s="2"/>
       <c r="F371" s="2"/>
@@ -10831,15 +10825,15 @@
       </c>
       <c r="H371" s="2"/>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E372" s="2"/>
       <c r="F372" s="2"/>
@@ -10850,13 +10844,13 @@
     </row>
     <row r="373" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E373" s="2"/>
       <c r="F373" s="2"/>
@@ -10865,15 +10859,15 @@
       </c>
       <c r="H373" s="2"/>
     </row>
-    <row r="374" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E374" s="2"/>
       <c r="F374" s="2"/>
@@ -10884,13 +10878,13 @@
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E375" s="2"/>
       <c r="F375" s="2"/>
@@ -10901,13 +10895,13 @@
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E376" s="2"/>
       <c r="F376" s="2"/>
@@ -10918,13 +10912,13 @@
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E377" s="2"/>
       <c r="F377" s="2"/>
@@ -10935,13 +10929,13 @@
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E378" s="2"/>
       <c r="F378" s="2"/>
@@ -10952,13 +10946,13 @@
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E379" s="2"/>
       <c r="F379" s="2"/>
@@ -10969,13 +10963,13 @@
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E380" s="2"/>
       <c r="F380" s="2"/>
@@ -10984,32 +10978,32 @@
       </c>
       <c r="H380" s="2"/>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E381" s="2"/>
       <c r="F381" s="2"/>
       <c r="G381" s="3" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="H381" s="2"/>
     </row>
-    <row r="382" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E382" s="2"/>
       <c r="F382" s="2"/>
@@ -11020,13 +11014,13 @@
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E383" s="2"/>
       <c r="F383" s="2"/>
@@ -11037,13 +11031,13 @@
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E384" s="2"/>
       <c r="F384" s="2"/>
@@ -11054,13 +11048,13 @@
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E385" s="2"/>
       <c r="F385" s="2"/>
@@ -11071,13 +11065,13 @@
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E386" s="2"/>
       <c r="F386" s="2"/>
@@ -11088,13 +11082,13 @@
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E387" s="2"/>
       <c r="F387" s="2"/>
@@ -11105,13 +11099,13 @@
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E388" s="2"/>
       <c r="F388" s="2"/>
@@ -11120,15 +11114,15 @@
       </c>
       <c r="H388" s="2"/>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E389" s="2"/>
       <c r="F389" s="2"/>
@@ -11137,15 +11131,15 @@
       </c>
       <c r="H389" s="2"/>
     </row>
-    <row r="390" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E390" s="2"/>
       <c r="F390" s="2"/>
@@ -11156,13 +11150,13 @@
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E391" s="2"/>
       <c r="F391" s="2"/>
@@ -11173,13 +11167,13 @@
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E392" s="2"/>
       <c r="F392" s="2"/>
@@ -11188,15 +11182,15 @@
       </c>
       <c r="H392" s="2"/>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E393" s="2"/>
       <c r="F393" s="2"/>
@@ -11205,15 +11199,15 @@
       </c>
       <c r="H393" s="2"/>
     </row>
-    <row r="394" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E394" s="2"/>
       <c r="F394" s="2"/>
@@ -11224,13 +11218,13 @@
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E395" s="2"/>
       <c r="F395" s="2"/>
@@ -11241,13 +11235,13 @@
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E396" s="2"/>
       <c r="F396" s="2"/>
@@ -11258,13 +11252,13 @@
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E397" s="2"/>
       <c r="F397" s="2"/>
@@ -11273,69 +11267,69 @@
       </c>
       <c r="H397" s="2"/>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="2">
-        <v>395</v>
-      </c>
-      <c r="B398" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C398" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E398" s="2"/>
-      <c r="F398" s="2"/>
-      <c r="G398" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B398" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C398" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D398" s="5"/>
+      <c r="E398" s="5"/>
+      <c r="F398" s="5"/>
+      <c r="G398" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H398" s="2"/>
-    </row>
-    <row r="399" spans="1:8" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H398" s="5"/>
+    </row>
+    <row r="399" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
-        <v>396</v>
-      </c>
-      <c r="B399" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C399" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D399" s="5"/>
-      <c r="E399" s="5"/>
-      <c r="F399" s="5"/>
-      <c r="G399" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H399" s="5"/>
+        <v>397</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E399" s="2"/>
+      <c r="F399" s="2"/>
+      <c r="G399" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H399" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="400" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E400" s="2"/>
       <c r="F400" s="2"/>
       <c r="G400" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H400" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H400" s="2"/>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E401" s="2"/>
       <c r="F401" s="2"/>
@@ -11346,13 +11340,13 @@
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E402" s="2"/>
       <c r="F402" s="2"/>
@@ -11363,13 +11357,13 @@
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E403" s="2"/>
       <c r="F403" s="2"/>
@@ -11380,13 +11374,13 @@
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E404" s="2"/>
       <c r="F404" s="2"/>
@@ -11396,20 +11390,11 @@
       <c r="H404" s="2"/>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A405" s="2">
-        <v>402</v>
-      </c>
-      <c r="B405" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C405" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A405" s="2"/>
+      <c r="B405" s="2"/>
       <c r="E405" s="2"/>
       <c r="F405" s="2"/>
-      <c r="G405" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="G405" s="3"/>
       <c r="H405" s="2"/>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
@@ -12318,11 +12303,6 @@
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="2"/>
-      <c r="B519" s="2"/>
-      <c r="E519" s="2"/>
-      <c r="F519" s="2"/>
-      <c r="G519" s="3"/>
-      <c r="H519" s="2"/>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="2"/>
@@ -12342,11 +12322,8 @@
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="2"/>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A526" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A3:H379" xr:uid="{A99EEB5B-AC88-4B19-970A-3441EF75BA6A}"/>
+  <autoFilter ref="A3:H378" xr:uid="{A99EEB5B-AC88-4B19-970A-3441EF75BA6A}"/>
   <mergeCells count="1">
     <mergeCell ref="A2:H2"/>
   </mergeCells>
